--- a/DataGenerator/XLSXS/ItemSubStatData.xlsx
+++ b/DataGenerator/XLSXS/ItemSubStatData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E14923D-FD02-4594-9988-23E14253A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865BE3F-96D5-4D46-9288-4B18642B1F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1020" windowWidth="21600" windowHeight="13335" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="8535" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>BONUS_DAMAGE</t>
   </si>
   <si>
-    <t>ARMOR</t>
-  </si>
-  <si>
     <t>MAGIC_RESIST</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>DAMAGE_REDUCTION</t>
-  </si>
-  <si>
-    <t>SHIELD</t>
   </si>
   <si>
     <t>설명텍스트</t>
@@ -170,6 +164,14 @@
   </si>
   <si>
     <t>DES_ITEM_SUBSTATS_SHIELD</t>
+  </si>
+  <si>
+    <t>DEFENSE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BARRIER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,7 +558,7 @@
   <dimension ref="A1:AF999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,7 +566,8 @@
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="4" max="5" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -584,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -630,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -676,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -722,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -768,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -814,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -860,7 +863,7 @@
         <v>750</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -906,7 +909,7 @@
         <v>2500</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -952,7 +955,7 @@
         <v>5000</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -998,7 +1001,7 @@
         <v>1000</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1044,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1081,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
@@ -1090,7 +1093,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1127,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5">
         <v>10</v>
@@ -1136,7 +1139,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1173,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5">
         <v>10</v>
@@ -1182,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1219,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -1228,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1265,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -1274,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1311,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -1320,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1357,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5">
         <v>10</v>
@@ -1366,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1403,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5">
         <v>100</v>
@@ -1412,7 +1415,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1449,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5">
         <v>100</v>
@@ -1458,7 +1461,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>

--- a/DataGenerator/XLSXS/ItemSubStatData.xlsx
+++ b/DataGenerator/XLSXS/ItemSubStatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865BE3F-96D5-4D46-9288-4B18642B1F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDED30-F632-42AC-BAA7-B088454DD66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="8535" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,11 +166,11 @@
     <t>DES_ITEM_SUBSTATS_SHIELD</t>
   </si>
   <si>
-    <t>DEFENSE</t>
+    <t>BARRIER</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BARRIER</t>
+    <t>ARMOR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +558,7 @@
   <dimension ref="A1:AF999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5">
         <v>100</v>
